--- a/Assets/StreamingAssets/ExcelConfig/Test.xlsx
+++ b/Assets/StreamingAssets/ExcelConfig/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22608" windowHeight="11795"/>
+    <workbookView windowWidth="30720" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>月刃2</t>
+  </si>
+  <si>
+    <t>月刃123</t>
+  </si>
+  <si>
+    <t>月刃213</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1030,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1124,25 +1130,45 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
@@ -1152,18 +1178,38 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/ExcelConfig/Test.xlsx
+++ b/Assets/StreamingAssets/ExcelConfig/Test.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -30,7 +30,10 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>IsThrough</t>
+    <t>IsTest</t>
+  </si>
+  <si>
+    <t>TestName</t>
   </si>
   <si>
     <t>int</t>
@@ -42,22 +45,25 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>月刃</t>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>技能名1</t>
   </si>
   <si>
     <t>[10,20,30]</t>
   </si>
   <si>
-    <t>月刃2</t>
-  </si>
-  <si>
-    <t>月刃123</t>
-  </si>
-  <si>
-    <t>月刃213</t>
+    <t>["asd","asdaf"]</t>
+  </si>
+  <si>
+    <t>技能名2</t>
   </si>
 </sst>
 </file>
@@ -1028,22 +1034,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="28.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,22 +1066,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1084,21 +1097,24 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:5">
@@ -1106,16 +1122,21 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -1128,15 +1149,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,22 +1173,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1177,7 +1204,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -1185,13 +1212,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1199,16 +1229,16 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1254,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Assets/StreamingAssets/ExcelConfig/Test.xlsx
+++ b/Assets/StreamingAssets/ExcelConfig/Test.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView windowWidth="20580" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +49,9 @@
     <t>TestName</t>
   </si>
   <si>
+    <t>TestName2</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -51,25 +67,37 @@
     <t>bool</t>
   </si>
   <si>
+    <t>Vector3</t>
+  </si>
+  <si>
+    <t>vector3[]</t>
+  </si>
+  <si>
+    <t>技能名1</t>
+  </si>
+  <si>
+    <t>[10,20,30]</t>
+  </si>
+  <si>
+    <t>{"x":1.0,"y":1.0,"z":1.0}</t>
+  </si>
+  <si>
+    <t>[{"x":1.0,"y":1.0,"z":1.0},{"x":1.0,"y":1.0,"z":1.0}]</t>
+  </si>
+  <si>
+    <t>技能名2</t>
+  </si>
+  <si>
     <t>string[]</t>
   </si>
   <si>
-    <t>技能名1</t>
-  </si>
-  <si>
-    <t>[10,20,30]</t>
-  </si>
-  <si>
     <t>["asd","asdaf"]</t>
-  </si>
-  <si>
-    <t>技能名2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -85,34 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -126,14 +126,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,6 +170,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,7 +230,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,49 +266,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,121 +404,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,21 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +489,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,148 +562,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -689,52 +717,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1034,23 +1062,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="25.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="14.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="25.5545454545455" customWidth="1"/>
+    <col min="4" max="4" width="15.8909090909091" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="28.5545454545455" customWidth="1"/>
+    <col min="7" max="7" width="49.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,25 +1098,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1097,15 +1132,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
@@ -1114,7 +1149,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:5">
@@ -1122,10 +1160,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1155,7 +1193,7 @@
       <selection activeCell="A1" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1179,22 +1217,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1209,10 +1247,10 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
@@ -1221,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1229,10 +1267,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1257,7 +1295,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/StreamingAssets/ExcelConfig/Test.xlsx
+++ b/Assets/StreamingAssets/ExcelConfig/Test.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="13200"/>
+    <workbookView windowHeight="14320" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,9 @@
     <t>TestName2</t>
   </si>
   <si>
+    <t>TestName3</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -73,16 +76,22 @@
     <t>vector3[]</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>技能名1</t>
   </si>
   <si>
     <t>[10,20,30]</t>
   </si>
   <si>
-    <t>{"x":1.0,"y":1.0,"z":1.0}</t>
-  </si>
-  <si>
-    <t>[{"x":1.0,"y":1.0,"z":1.0},{"x":1.0,"y":1.0,"z":1.0}]</t>
+    <t>[1,1,1]</t>
+  </si>
+  <si>
+    <t>[[1,1,1],[2,2,2]]</t>
+  </si>
+  <si>
+    <t>[1,1,0.5,0.5]</t>
   </si>
   <si>
     <t>技能名2</t>
@@ -1062,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.4454545454545" customWidth="1"/>
     <col min="2" max="2" width="14.4454545454545" customWidth="1"/>
@@ -1077,9 +1086,10 @@
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="28.5545454545455" customWidth="1"/>
     <col min="7" max="7" width="49.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="30.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,28 +1111,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1132,15 +1148,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
@@ -1149,10 +1165,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:5">
@@ -1160,10 +1179,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1189,7 +1208,7 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
@@ -1217,22 +1236,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1247,10 +1266,10 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
@@ -1259,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1267,10 +1286,10 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
